--- a/3-data-analysis/mpg.xlsx
+++ b/3-data-analysis/mpg.xlsx
@@ -119,7 +119,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599704</xdr:colOff>
+      <xdr:colOff>590560</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>91447</xdr:rowOff>
     </xdr:to>
@@ -139,7 +139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4866904" cy="3520447"/>
+          <a:ext cx="4857760" cy="3520447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
